--- a/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
+++ b/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
@@ -18,9 +18,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市新興區新興段三小段08890000地號</t>
+  </si>
+  <si>
+    <t>高雄市新興區新興段三小段08890002地號</t>
+  </si>
+  <si>
+    <t>10000分之1320</t>
+  </si>
+  <si>
+    <t>趙天麟</t>
+  </si>
+  <si>
+    <t>99年12月28日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>7500000(詳見建物第一筆）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp58581</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,43 +116,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市新興區新興段三小段 0889-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市新興區新興段三小段 0889-0002 地號</t>
-  </si>
-  <si>
-    <t>10000分之 1320</t>
-  </si>
-  <si>
-    <t>趙天麟</t>
-  </si>
-  <si>
-    <t>99年12月 28日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>7’500’000(詳 見建物第一 筆）</t>
-  </si>
-  <si>
-    <t>7，500,000(詳 見建物第一 筆）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市新興區新興段三小段 02488-000 建號</t>
+    <t>高雄市新興區新興段三小段02488000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>99年12月 28曰</t>
-  </si>
-  <si>
-    <t>7,500,000(房 地總價額）</t>
+    <t>99年12月28曰</t>
+  </si>
+  <si>
+    <t>7500000(房地總價額）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -92,7 +140,7 @@
     <t>裕隆</t>
   </si>
   <si>
-    <t>96年05月 15日</t>
+    <t>96年05月15日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -107,16 +155,16 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行七賢分 行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行雙連分 行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行港都分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分 行</t>
+    <t>臺灣新光商業銀行七賢分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行雙連分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行港都分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
   </si>
   <si>
     <t>臺灣銀行中崙分行</t>
@@ -125,7 +173,7 @@
     <t>臺灣土地銀行文山分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司九 如二路分行</t>
+    <t>中華郵政股份有限公司九如二路分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -137,7 +185,7 @@
     <t>丁雅婷</t>
   </si>
   <si>
-    <t>1,693,963</t>
+    <t>1693963</t>
   </si>
   <si>
     <t>名</t>
@@ -158,22 +206,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字晝及事</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字晝及事</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -538,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,57 +614,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>350</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1761</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1761</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -634,25 +745,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -660,25 +771,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>183.39</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -696,22 +807,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -719,19 +830,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>2488</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2">
         <v>800000</v>
@@ -752,19 +863,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -772,16 +883,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>379943</v>
@@ -792,16 +903,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>62817</v>
@@ -812,16 +923,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>998279</v>
@@ -832,16 +943,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
         <v>102653</v>
@@ -852,19 +963,19 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -872,16 +983,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2">
         <v>2552</v>
@@ -892,16 +1003,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2">
         <v>27368</v>
@@ -922,22 +1033,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -945,14 +1056,14 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -962,22 +1073,22 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
+++ b/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>高雄市新興區新興段三小段08890000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>高雄市新興區新興段三小段08890002地號</t>
@@ -95,27 +98,6 @@
     <t>tmp58581</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>高雄市新興區新興段三小段02488000建號</t>
   </si>
   <si>
@@ -128,106 +110,70 @@
     <t>7500000(房地總價額）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>裕隆</t>
+  </si>
+  <si>
+    <t>96年05月15日</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行七賢分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行雙連分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行港都分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行中崙分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行文山分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司九如二路分行</t>
+  </si>
+  <si>
+    <t>丁雅婷</t>
+  </si>
+  <si>
+    <t>1693963</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字晝及事</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
-  </si>
-  <si>
-    <t>裕隆</t>
-  </si>
-  <si>
-    <t>96年05月15日</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行七賢分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行雙連分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行港都分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行中崙分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行文山分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司九如二路分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>丁雅婷</t>
-  </si>
-  <si>
-    <t>1693963</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及事</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
   </si>
 </sst>
 </file>
@@ -586,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,99 +581,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M2" s="2">
         <v>1761</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1761</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2">
-        <v>16</v>
+      <c r="P2" s="2">
+        <v>0.132</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.792</v>
       </c>
     </row>
   </sheetData>
@@ -737,59 +648,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="C1" s="1">
+        <v>183.39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>183.39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -798,6 +683,189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2488</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>379943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2">
+        <v>62817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>998279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>102653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2">
+        <v>27368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -807,288 +875,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2488</v>
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2">
-        <v>800000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2">
-        <v>379943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2">
-        <v>62817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2">
-        <v>998279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2">
-        <v>102653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
         <v>50</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="G2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="2">
-        <v>27368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>75</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
+++ b/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>高雄市新興區新興段三小段08890000地號</t>
   </si>
   <si>
     <t>高雄市新興區新興段三小段08890002地號</t>
@@ -532,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,54 +593,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2">
         <v>1761</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
         <v>0.132</v>
       </c>
       <c r="Q2" s="2">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1761</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.132</v>
+      </c>
+      <c r="Q3" s="2">
         <v>0.792</v>
       </c>
     </row>
@@ -648,33 +704,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <v>183.39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1761</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1">
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>183.39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -683,189 +819,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2488</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>800000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>379943</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2">
-        <v>62817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2">
-        <v>998279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>102653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2">
-        <v>27368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -875,39 +828,282 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2488</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2488</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2">
+        <v>800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1">
+        <v>379943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2">
+        <v>379943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>62817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>998279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>102653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2">
+        <v>27368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>75</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
+++ b/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>7500000(房地總價額）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>裕隆</t>
@@ -820,38 +823,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
-        <v>2488</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>2488</v>
@@ -860,13 +884,34 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="2">
         <v>800000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1761</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -884,13 +929,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -904,13 +949,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -924,13 +969,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -944,13 +989,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -964,13 +1009,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -984,19 +1029,19 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1004,16 +1049,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2">
         <v>2552</v>
@@ -1024,16 +1069,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2">
         <v>27368</v>
@@ -1054,14 +1099,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1071,16 +1116,16 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1088,22 +1133,22 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
+++ b/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -113,6 +113,9 @@
     <t>7500000(房地總價額）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>96年05月15日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣新光商業銀行七賢分行</t>
@@ -789,7 +795,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>24</v>
@@ -834,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -875,7 +881,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>2488</v>
@@ -884,7 +890,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
@@ -893,7 +899,7 @@
         <v>800000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -929,13 +935,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -949,13 +955,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -969,13 +975,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -989,13 +995,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1009,13 +1015,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1029,19 +1035,19 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1049,16 +1055,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2">
         <v>2552</v>
@@ -1069,16 +1075,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2">
         <v>27368</v>
@@ -1099,14 +1105,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1116,16 +1122,16 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1133,22 +1139,22 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
+++ b/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -128,37 +128,46 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣新光商業銀行七賢分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行雙連分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行港都分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行中崙分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行文山分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司九如二路分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行雙連分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行港都分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行中崙分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行文山分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司九如二路分行</t>
-  </si>
-  <si>
     <t>丁雅婷</t>
   </si>
   <si>
-    <t>1693963</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字晝及事</t>
@@ -927,13 +936,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -944,24 +953,45 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1">
-        <v>379943</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -969,19 +999,40 @@
       <c r="F2" s="2">
         <v>379943</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1761</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -989,19 +1040,40 @@
       <c r="F3" s="2">
         <v>62817</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1761</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1009,19 +1081,40 @@
       <c r="F4" s="2">
         <v>998279</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1761</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1029,65 +1122,149 @@
       <c r="F5" s="2">
         <v>102653</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1761</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="2">
+        <v>1693963</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1761</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2">
         <v>2552</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1761</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2">
         <v>27368</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1761</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1105,14 +1282,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1122,16 +1299,16 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1139,22 +1316,22 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
+++ b/legislator/property/output/normal/趙天麟_2012-04-30_財產申報表_tmp58581.xlsx
@@ -11,14 +11,13 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -168,33 +167,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及事</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
 </sst>
 </file>
@@ -1270,71 +1242,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>75</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>